--- a/BioactivityModels/HDAC6/models/Regression/OUTPUT/EvaluationResults.xlsx
+++ b/BioactivityModels/HDAC6/models/Regression/OUTPUT/EvaluationResults.xlsx
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6994214625108526</v>
+        <v>0.6996196244185391</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03226208304044563</v>
+        <v>0.03212760973435271</v>
       </c>
     </row>
     <row r="3">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8548613653311641</v>
+        <v>0.8559412921157887</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01902896829990586</v>
+        <v>0.02011308768159995</v>
       </c>
     </row>
     <row r="4">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8715218245941051</v>
+        <v>0.8704347416836781</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02126038566237887</v>
+        <v>0.02436433390850485</v>
       </c>
     </row>
     <row r="5">
@@ -512,10 +512,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8982621864937376</v>
+        <v>0.9014849296865843</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01907162995061939</v>
+        <v>0.02359824297261045</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7839620000000003</v>
+        <v>0.78229</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04390814572746712</v>
+        <v>0.04146176133573229</v>
       </c>
     </row>
     <row r="7">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8844638399319183</v>
+        <v>0.8853616109926916</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01441681845153857</v>
+        <v>0.01687665565134681</v>
       </c>
     </row>
     <row r="8">
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8539885860995384</v>
+        <v>0.8549938541492554</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01951726810677658</v>
+        <v>0.02034443945912684</v>
       </c>
     </row>
     <row r="9">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8441449231134915</v>
+        <v>0.8452365781264543</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02195192970906168</v>
+        <v>0.02137660910618156</v>
       </c>
     </row>
     <row r="10">
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.841114789922997</v>
+        <v>0.8418849902599983</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02320592898913515</v>
+        <v>0.02212783694321691</v>
       </c>
     </row>
     <row r="11">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.689852435366887</v>
+        <v>0.6925804422999471</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04301005849586768</v>
+        <v>0.04233477746375538</v>
       </c>
     </row>
     <row r="12">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8261720000000001</v>
+        <v>0.8312280000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03183854703894354</v>
+        <v>0.03579103205427589</v>
       </c>
     </row>
     <row r="13">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.841114789922997</v>
+        <v>0.8418849902599983</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02320592898913515</v>
+        <v>0.02212783694321692</v>
       </c>
     </row>
   </sheetData>
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7050912977416002</v>
+        <v>0.7060673137231481</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03177046589360343</v>
+        <v>0.03570068998074797</v>
       </c>
     </row>
     <row r="3">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8492088671954445</v>
+        <v>0.8510256931733443</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02144399369402265</v>
+        <v>0.01951592881237776</v>
       </c>
     </row>
     <row r="4">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8701102139434691</v>
+        <v>0.8737349439519048</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02233538156590985</v>
+        <v>0.02499621482198969</v>
       </c>
     </row>
     <row r="5">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8892493755186694</v>
+        <v>0.8878658704795244</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02183920811565286</v>
+        <v>0.02143974703168881</v>
       </c>
     </row>
     <row r="6">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7842</v>
+        <v>0.791614</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04034434942606269</v>
+        <v>0.04254307305903186</v>
       </c>
     </row>
     <row r="7">
@@ -772,10 +772,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.87935687842291</v>
+        <v>0.8804126135969018</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01709732890249968</v>
+        <v>0.01582093234860432</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.848608719957559</v>
+        <v>0.8505727208879935</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02161953995991732</v>
+        <v>0.0197994305665561</v>
       </c>
     </row>
     <row r="9">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8387436726340169</v>
+        <v>0.8409584503813687</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02349994336660829</v>
+        <v>0.02115912532614356</v>
       </c>
     </row>
     <row r="10">
@@ -820,10 +820,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8367238930026702</v>
+        <v>0.8397420805002909</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02407832609317536</v>
+        <v>0.02221974665383712</v>
       </c>
     </row>
     <row r="11">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6786085291389931</v>
+        <v>0.6832379250684597</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04681984860682953</v>
+        <v>0.04181922947979298</v>
       </c>
     </row>
     <row r="12">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.813796</v>
+        <v>0.813406</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03594865363207896</v>
+        <v>0.03409977203825892</v>
       </c>
     </row>
     <row r="13">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8367238930026702</v>
+        <v>0.8397420805002909</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02407832609317535</v>
+        <v>0.02221974665383709</v>
       </c>
     </row>
   </sheetData>
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.71007244504912</v>
+        <v>0.7133563180046232</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02872672226994212</v>
+        <v>0.03168321183744366</v>
       </c>
     </row>
     <row r="3">
@@ -936,10 +936,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8531118794206042</v>
+        <v>0.8532494972092287</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01912069133672994</v>
+        <v>0.02177303653563658</v>
       </c>
     </row>
     <row r="4">
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8694106729997197</v>
+        <v>0.8718532947764887</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02064276267956796</v>
+        <v>0.02622561493771886</v>
       </c>
     </row>
     <row r="5">
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8976751812168631</v>
+        <v>0.8945812074258531</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01966303606357354</v>
+        <v>0.02621206320705933</v>
       </c>
     </row>
     <row r="6">
@@ -984,10 +984,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.78081</v>
+        <v>0.786344</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03817506532076792</v>
+        <v>0.04682979236619809</v>
       </c>
     </row>
     <row r="7">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8831135033629327</v>
+        <v>0.8826605138257629</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01498494267092963</v>
+        <v>0.01816282126210453</v>
       </c>
     </row>
     <row r="8">
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8522527301263919</v>
+        <v>0.852487391728794</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01938110662532908</v>
+        <v>0.02219394045856452</v>
       </c>
     </row>
     <row r="9">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.842343621193012</v>
+        <v>0.8427937528710246</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02136250091278647</v>
+        <v>0.02332848273017992</v>
       </c>
     </row>
     <row r="10">
@@ -1048,10 +1048,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.839242030625189</v>
+        <v>0.8404616292447669</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02201757428245397</v>
+        <v>0.0240825376746054</v>
       </c>
     </row>
     <row r="11">
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.686190256102957</v>
+        <v>0.6875796723055668</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04246499871420138</v>
+        <v>0.04549151471884993</v>
       </c>
     </row>
     <row r="12">
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8246620000000001</v>
+        <v>0.822654</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03399351012490832</v>
+        <v>0.03794035173526886</v>
       </c>
     </row>
     <row r="13">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.839242030625189</v>
+        <v>0.8404616292447668</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02201757428245396</v>
+        <v>0.0240825376746054</v>
       </c>
     </row>
   </sheetData>
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.654499116038783</v>
+        <v>0.6559387588416793</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04429714077288979</v>
+        <v>0.04112081189307576</v>
       </c>
     </row>
     <row r="3">
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.839586694687366</v>
+        <v>0.8398488238085554</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02028208865921382</v>
+        <v>0.01921565786780467</v>
       </c>
     </row>
     <row r="4">
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8466960459229834</v>
+        <v>0.8483882863552048</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02144986141227532</v>
+        <v>0.02705002021571299</v>
       </c>
     </row>
     <row r="5">
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9046495223593055</v>
+        <v>0.90292413180965</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02365085546946073</v>
+        <v>0.02252111232064384</v>
       </c>
     </row>
     <row r="6">
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.734406</v>
+        <v>0.73893</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03786935334078178</v>
+        <v>0.04285350103574279</v>
       </c>
     </row>
     <row r="7">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.874455209653044</v>
+        <v>0.8743810907381355</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01648750520515394</v>
+        <v>0.01578383970085319</v>
       </c>
     </row>
     <row r="8">
@@ -1244,10 +1244,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8374982660266335</v>
+        <v>0.8379045345953616</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02060305570650078</v>
+        <v>0.01978952741386392</v>
       </c>
     </row>
     <row r="9">
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.825733976641963</v>
+        <v>0.8263388635579035</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02226768211173475</v>
+        <v>0.02061375432842859</v>
       </c>
     </row>
     <row r="10">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8195317958274855</v>
+        <v>0.8209225778885556</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02240114403201236</v>
+        <v>0.02147255419585601</v>
       </c>
     </row>
     <row r="11">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6558918316098239</v>
+        <v>0.6572181755481965</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04483605619513734</v>
+        <v>0.04060943083268111</v>
       </c>
     </row>
     <row r="12">
@@ -1308,10 +1308,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.826628</v>
+        <v>0.82479</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04052703829115892</v>
+        <v>0.03887625186645021</v>
       </c>
     </row>
     <row r="13">
@@ -1324,10 +1324,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8195317958274856</v>
+        <v>0.8209225778885556</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02240114403201237</v>
+        <v>0.021472554195856</v>
       </c>
     </row>
   </sheetData>
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7140157027611422</v>
+        <v>0.714318730770536</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02805647864851244</v>
+        <v>0.03599193447492138</v>
       </c>
     </row>
     <row r="3">
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8543926965403478</v>
+        <v>0.8584306148735679</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01962628869099284</v>
+        <v>0.02126841252358433</v>
       </c>
     </row>
     <row r="4">
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8694921463792161</v>
+        <v>0.8721981510074935</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02060572571462073</v>
+        <v>0.02819364630446649</v>
       </c>
     </row>
     <row r="5">
@@ -1424,10 +1424,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8997915222796471</v>
+        <v>0.9039124981979098</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01999443678373724</v>
+        <v>0.02384517885236478</v>
       </c>
     </row>
     <row r="6">
@@ -1440,10 +1440,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.780788</v>
+        <v>0.7850780000000002</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03680970723788463</v>
+        <v>0.04809245470965275</v>
       </c>
     </row>
     <row r="7">
@@ -1456,10 +1456,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8842034955540423</v>
+        <v>0.8873616850189266</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01581941193381486</v>
+        <v>0.0177820636464154</v>
       </c>
     </row>
     <row r="8">
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8534866490046379</v>
+        <v>0.8574258310574592</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01987349300489982</v>
+        <v>0.0217111046353776</v>
       </c>
     </row>
     <row r="9">
@@ -1488,10 +1488,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8436549572907479</v>
+        <v>0.847872795817618</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02153863981762755</v>
+        <v>0.0225308425710278</v>
       </c>
     </row>
     <row r="10">
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8402898681546535</v>
+        <v>0.8444917163203968</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02209377356630691</v>
+        <v>0.02405380556851974</v>
       </c>
     </row>
     <row r="11">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6888593424393349</v>
+        <v>0.6982318371230769</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04286836434585724</v>
+        <v>0.04447807135060493</v>
       </c>
     </row>
     <row r="12">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8278439999999999</v>
+        <v>0.8356300000000002</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03365483960103553</v>
+        <v>0.03549446205726597</v>
       </c>
     </row>
     <row r="13">
@@ -1552,10 +1552,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8402898681546535</v>
+        <v>0.8444917163203968</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02209377356630688</v>
+        <v>0.02405380556851974</v>
       </c>
     </row>
   </sheetData>
